--- a/Assets/RealFram/Data/Excel/EnemyData.xlsx
+++ b/Assets/RealFram/Data/Excel/EnemyData.xlsx
@@ -46,9 +46,6 @@
     <t>3001</t>
   </si>
   <si>
-    <t>Assets/枪火之地/prefabs/spider_ani.prefab</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
@@ -102,6 +99,28 @@
   </si>
   <si>
     <t>预制体完整路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>/Prefabs/ms_spider_green.prefab</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +479,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,13 +487,13 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -489,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -511,8 +530,8 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -520,22 +539,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -543,22 +562,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -566,22 +585,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -589,22 +608,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G6">
         <v>1</v>

--- a/Assets/RealFram/Data/Excel/EnemyData.xlsx
+++ b/Assets/RealFram/Data/Excel/EnemyData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>名字</t>
   </si>
@@ -49,15 +49,6 @@
     <t>2002</t>
   </si>
   <si>
-    <t>红蜘蛛</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
   </si>
   <si>
     <t>2004</t>
-  </si>
-  <si>
-    <t>大绿蜘蛛</t>
   </si>
   <si>
     <t>400</t>
@@ -120,6 +108,105 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>/Prefabs/ms_spider_green.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Prefabs/drone.prefab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Prefabs/spider.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Prefabs/spider3.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Prefabs/spider2.prefab</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,7 +566,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -508,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -531,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -541,20 +628,20 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3002</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -562,19 +649,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
@@ -585,22 +672,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -608,22 +695,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>1</v>

--- a/Assets/RealFram/Data/Excel/EnemyData.xlsx
+++ b/Assets/RealFram/Data/Excel/EnemyData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>名字</t>
   </si>
@@ -31,55 +31,16 @@
     <t>怪物大小</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>绿蜘蛛</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>3001</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>白蜘蛛</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
     <t>2005</t>
-  </si>
-  <si>
-    <t>小绿蜘蛛</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1.2</t>
   </si>
   <si>
     <t>ID</t>
@@ -106,13 +67,13 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-      </rPr>
-      <t>/Prefabs/ms_spider_green.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人机</t>
+        <family val="2"/>
+      </rPr>
+      <t>/Prefabs/drone.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>白炮台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,7 +95,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/drone.prefab</t>
+      <t>/Prefabs/turret.prefab</t>
     </r>
   </si>
   <si>
@@ -158,7 +119,9 @@
       </rPr>
       <t>/Prefabs/spider.prefab</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机</t>
   </si>
   <si>
     <r>
@@ -181,11 +144,9 @@
       </rPr>
       <t>/Prefabs/spider3.prefab</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红蜘蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -208,7 +169,6 @@
       </rPr>
       <t>/Prefabs/spider2.prefab</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -566,7 +526,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -595,44 +555,44 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+      <c r="E2">
+        <v>3001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3">
+        <v>2002</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>25</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -641,53 +601,53 @@
         <v>3002</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1.8</v>
+      </c>
+      <c r="E4">
+        <v>3003</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="A5">
+        <v>2004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5">
+        <v>3001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -695,22 +655,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>1</v>

--- a/Assets/RealFram/Data/Excel/EnemyData.xlsx
+++ b/Assets/RealFram/Data/Excel/EnemyData.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="37455" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="所有怪物参数" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>名字</t>
   </si>
@@ -28,69 +31,21 @@
     <t>攻击特效ID</t>
   </si>
   <si>
+    <t>预制体完整路径</t>
+  </si>
+  <si>
     <t>怪物大小</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>绿蜘蛛</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>白蜘蛛</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>小绿蜘蛛</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制体完整路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Assets/</t>
     </r>
     <r>
@@ -106,17 +61,21 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-      </rPr>
-      <t>/Prefabs/ms_spider_green.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/spider.prefab</t>
+    </r>
   </si>
   <si>
     <t>无人机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Assets/</t>
     </r>
     <r>
@@ -134,11 +93,19 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/drone.prefab</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>/prefabs/drone.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>白蜘蛛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Assets/</t>
     </r>
     <r>
@@ -156,12 +123,19 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/spider.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>/prefabs/spider3.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>红蜘蛛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Assets/</t>
     </r>
     <r>
@@ -179,16 +153,22 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/spider3.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红蜘蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <t>/prefabs/spider2.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>白炮台</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Assets/</t>
     </r>
     <r>
@@ -206,24 +186,121 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Prefabs/spider2.prefab</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>/prefabs/turret.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>炮弹泰坦</t>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/ammoTitan.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>炮弹</t>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/mine.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>击地泰坦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/prefabs/beatTitan.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>Boss1号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/prefabs/Boss1.prefab</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -236,6 +313,17 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,8 +346,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -563,76 +652,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>1.8</v>
+      </c>
+      <c r="E2">
+        <v>3001</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3">
+        <v>2002</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>25</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -641,84 +730,176 @@
         <v>3002</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1.8</v>
+      </c>
+      <c r="E4">
+        <v>3003</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="A5">
+        <v>2004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5">
+        <v>3001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>3001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3001</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>